--- a/program/1S3B/RawData/Crops_Data.xlsx
+++ b/program/1S3B/RawData/Crops_Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Programming\STIKA\Unity\1S3B\program\1S3B\RawData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1746B7AA-78B6-42FD-ADB2-E413165FA347}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF7DE65E-1529-497E-8D20-D2E33B7EF15E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="45" windowWidth="29040" windowHeight="15840" xr2:uid="{38398EED-7580-4DA0-A828-A83E37DEE852}"/>
+    <workbookView xWindow="31800" yWindow="165" windowWidth="23460" windowHeight="13365" xr2:uid="{38398EED-7580-4DA0-A828-A83E37DEE852}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -54,10 +54,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>NumberOfHarvest</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>StageAfterHarvest</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -94,10 +90,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>00,01,02,03,04</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Crops/Cauliflower/Cauliflower</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -110,11 +102,19 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>00,01,02,03,04,05</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>00,01,02,03,04,05,06,07</t>
+    <t>0,1,2,3,4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,1,2,3,4,5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,1,2,3,4,5,6,7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ReGrowthTime</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -502,7 +502,7 @@
   <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -511,8 +511,8 @@
     <col min="2" max="2" width="10.625" customWidth="1"/>
     <col min="3" max="3" width="10.125" customWidth="1"/>
     <col min="4" max="4" width="12.125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.25" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.25" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="17.875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="17.5" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="17.375" bestFit="1" customWidth="1"/>
@@ -524,7 +524,7 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -536,25 +536,25 @@
         <v>2</v>
       </c>
       <c r="E1" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="F1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" t="s">
         <v>4</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" t="s">
-        <v>5</v>
       </c>
       <c r="I1" t="s">
         <v>3</v>
       </c>
       <c r="J1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K1" t="s">
         <v>11</v>
-      </c>
-      <c r="K1" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
@@ -562,16 +562,16 @@
         <v>1001</v>
       </c>
       <c r="C2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D2">
         <v>4</v>
       </c>
       <c r="E2">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G2">
         <v>1</v>
@@ -583,10 +583,10 @@
         <v>28</v>
       </c>
       <c r="J2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
@@ -594,16 +594,16 @@
         <v>1002</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D3">
         <v>8</v>
       </c>
       <c r="E3">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G3">
         <v>1</v>
@@ -615,10 +615,10 @@
         <v>28</v>
       </c>
       <c r="J3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="K3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
@@ -626,31 +626,31 @@
         <v>1003</v>
       </c>
       <c r="C4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D4">
         <v>10</v>
       </c>
       <c r="E4">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>100</v>
+        <v>7</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="H4">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I4">
         <v>28</v>
       </c>
       <c r="J4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="K4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/program/1S3B/RawData/Crops_Data.xlsx
+++ b/program/1S3B/RawData/Crops_Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Programming\STIKA\Unity\1S3B\program\1S3B\RawData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF7DE65E-1529-497E-8D20-D2E33B7EF15E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98186D89-844E-4C6F-9DD2-E57DFC646C89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="31800" yWindow="165" windowWidth="23460" windowHeight="13365" xr2:uid="{38398EED-7580-4DA0-A828-A83E37DEE852}"/>
+    <workbookView xWindow="32700" yWindow="540" windowWidth="23460" windowHeight="13365" xr2:uid="{38398EED-7580-4DA0-A828-A83E37DEE852}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -122,6 +122,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -161,8 +164,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -502,7 +508,7 @@
   <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -558,8 +564,8 @@
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B2">
-        <v>1001</v>
+      <c r="B2" s="1">
+        <v>2001</v>
       </c>
       <c r="C2" t="s">
         <v>6</v>
@@ -590,8 +596,8 @@
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B3">
-        <v>1002</v>
+      <c r="B3" s="1">
+        <v>2002</v>
       </c>
       <c r="C3" t="s">
         <v>7</v>
@@ -622,8 +628,8 @@
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B4">
-        <v>1003</v>
+      <c r="B4" s="1">
+        <v>2003</v>
       </c>
       <c r="C4" t="s">
         <v>14</v>

--- a/program/1S3B/RawData/Crops_Data.xlsx
+++ b/program/1S3B/RawData/Crops_Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Programming\STIKA\Unity\1S3B\program\1S3B\RawData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98186D89-844E-4C6F-9DD2-E57DFC646C89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5F9190C-32BC-4364-98F2-603B3F4DFA87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="32700" yWindow="540" windowWidth="23460" windowHeight="13365" xr2:uid="{38398EED-7580-4DA0-A828-A83E37DEE852}"/>
+    <workbookView xWindow="27870" yWindow="675" windowWidth="23460" windowHeight="13365" xr2:uid="{38398EED-7580-4DA0-A828-A83E37DEE852}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="35">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -62,14 +62,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>파스닙</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>콜리플라워</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>#CropsData[{}]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -86,35 +78,102 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Crops/Parsnip/Parsnip</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Crops/Cauliflower/Cauliflower</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>콩</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Crops/Bean/Bean</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0,1,2,3,4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>0,1,2,3,4,5</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>0,1,2,3,4,5,6,7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ReGrowthTime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>당근</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>토마토</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>딸기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>호박</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>옥수수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>감자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수박</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>무</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>양배추</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>밀</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>가지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Crops/Carrot/Carrot</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,1,2,3,4,5</t>
+  </si>
+  <si>
+    <t>Crops/Pumpkin/Pumpkin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Crops/Potato/Potato</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Crops/Watermelon/Watermelon</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Crops/Radish/Radish</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Crops/Lettuce/Lettuce</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Crops/Wheat/Wheat</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Crops/Eggplant/Eggplant</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Crops/Corn/Corn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Crops/Tomato/Tomato</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Crops/Strawberry/Strawberry</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -125,7 +184,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -138,6 +197,14 @@
       <sz val="8"/>
       <name val="맑은 고딕"/>
       <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF222225"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
@@ -164,11 +231,14 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -505,16 +575,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{799A3EBA-BAA5-4534-951B-162B1D93B342}">
-  <dimension ref="A1:K4"/>
+  <dimension ref="A1:K12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="14.75" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.625" customWidth="1"/>
+    <col min="2" max="2" width="10.125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.125" customWidth="1"/>
     <col min="4" max="4" width="12.125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14.375" bestFit="1" customWidth="1"/>
@@ -530,7 +600,7 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -542,10 +612,10 @@
         <v>2</v>
       </c>
       <c r="E1" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="F1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G1" t="s">
         <v>5</v>
@@ -557,27 +627,27 @@
         <v>3</v>
       </c>
       <c r="J1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="K1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B2" s="1">
-        <v>2001</v>
+        <v>10002001</v>
       </c>
       <c r="C2" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="D2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G2">
         <v>1</v>
@@ -589,21 +659,21 @@
         <v>28</v>
       </c>
       <c r="J2" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="K2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B3" s="1">
-        <v>2002</v>
+        <v>10002002</v>
       </c>
       <c r="C3" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="D3">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -621,42 +691,298 @@
         <v>28</v>
       </c>
       <c r="J3" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="K3" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B4" s="1">
-        <v>2003</v>
+        <v>10002003</v>
       </c>
       <c r="C4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4">
+        <v>8</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>5</v>
+      </c>
+      <c r="G4">
+        <v>3</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>28</v>
+      </c>
+      <c r="J4" t="s">
+        <v>26</v>
+      </c>
+      <c r="K4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B5" s="1">
+        <v>10002004</v>
+      </c>
+      <c r="C5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5">
+        <v>10</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>5</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>28</v>
+      </c>
+      <c r="J5" t="s">
+        <v>27</v>
+      </c>
+      <c r="K5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B6" s="1">
+        <v>10002005</v>
+      </c>
+      <c r="C6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6">
+        <v>5</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>5</v>
+      </c>
+      <c r="G6">
+        <v>1</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>28</v>
+      </c>
+      <c r="J6" t="s">
+        <v>28</v>
+      </c>
+      <c r="K6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B7" s="1">
+        <v>10002006</v>
+      </c>
+      <c r="C7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7">
+        <v>8</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>5</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>28</v>
+      </c>
+      <c r="J7" t="s">
+        <v>29</v>
+      </c>
+      <c r="K7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B8" s="1">
+        <v>10002007</v>
+      </c>
+      <c r="C8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8">
+        <v>7</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>5</v>
+      </c>
+      <c r="G8">
+        <v>3</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>28</v>
+      </c>
+      <c r="J8" t="s">
+        <v>30</v>
+      </c>
+      <c r="K8" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="B9" s="1">
+        <v>10003001</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D9">
+        <v>6</v>
+      </c>
+      <c r="E9">
+        <v>2</v>
+      </c>
+      <c r="F9">
+        <v>5</v>
+      </c>
+      <c r="G9">
+        <v>1</v>
+      </c>
+      <c r="H9">
+        <v>4</v>
+      </c>
+      <c r="I9">
+        <v>28</v>
+      </c>
+      <c r="J9" t="s">
+        <v>31</v>
+      </c>
+      <c r="K9" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B10" s="1">
+        <v>10003002</v>
+      </c>
+      <c r="C10" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10">
+        <v>7</v>
+      </c>
+      <c r="E10">
+        <v>2</v>
+      </c>
+      <c r="F10">
+        <v>5</v>
+      </c>
+      <c r="G10">
+        <v>1</v>
+      </c>
+      <c r="H10">
+        <v>4</v>
+      </c>
+      <c r="I10">
+        <v>28</v>
+      </c>
+      <c r="J10" t="s">
+        <v>32</v>
+      </c>
+      <c r="K10" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B11" s="1">
+        <v>10003003</v>
+      </c>
+      <c r="C11" t="s">
+        <v>13</v>
+      </c>
+      <c r="D11">
+        <v>7</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>5</v>
+      </c>
+      <c r="G11">
+        <v>1</v>
+      </c>
+      <c r="H11">
+        <v>3</v>
+      </c>
+      <c r="I11">
+        <v>28</v>
+      </c>
+      <c r="J11" t="s">
+        <v>33</v>
+      </c>
+      <c r="K11" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B12" s="1">
+        <v>10003004</v>
+      </c>
+      <c r="C12" t="s">
         <v>14</v>
       </c>
-      <c r="D4">
-        <v>10</v>
-      </c>
-      <c r="E4">
-        <v>2</v>
-      </c>
-      <c r="F4">
-        <v>7</v>
-      </c>
-      <c r="G4">
+      <c r="D12">
+        <v>8</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>5</v>
+      </c>
+      <c r="G12">
         <v>1</v>
       </c>
-      <c r="H4">
-        <v>6</v>
-      </c>
-      <c r="I4">
-        <v>28</v>
-      </c>
-      <c r="J4" t="s">
-        <v>15</v>
-      </c>
-      <c r="K4" t="s">
-        <v>18</v>
+      <c r="H12">
+        <v>3</v>
+      </c>
+      <c r="I12">
+        <v>28</v>
+      </c>
+      <c r="J12" t="s">
+        <v>34</v>
+      </c>
+      <c r="K12" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>

--- a/program/1S3B/RawData/Crops_Data.xlsx
+++ b/program/1S3B/RawData/Crops_Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Programming\STIKA\Unity\1S3B\program\1S3B\RawData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5F9190C-32BC-4364-98F2-603B3F4DFA87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E1C001A-6631-4C09-AD76-EDEA0074E560}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="27870" yWindow="675" windowWidth="23460" windowHeight="13365" xr2:uid="{38398EED-7580-4DA0-A828-A83E37DEE852}"/>
+    <workbookView xWindow="30495" yWindow="885" windowWidth="23460" windowHeight="13365" xr2:uid="{38398EED-7580-4DA0-A828-A83E37DEE852}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="39">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -78,10 +78,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>0,1,2,3,4,5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ReGrowthTime</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -134,9 +130,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>0,1,2,3,4,5</t>
-  </si>
-  <si>
     <t>Crops/Pumpkin/Pumpkin</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -175,6 +168,28 @@
   <si>
     <t>Crops/Strawberry/Strawberry</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Season</t>
+  </si>
+  <si>
+    <t>0,1,2,3,4,5,6</t>
+  </si>
+  <si>
+    <t>0,1,2,3,4,5,6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>가을</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>여름</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>봄</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -184,7 +199,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -207,6 +222,26 @@
       <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF222225"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="돋움체"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
     </font>
   </fonts>
   <fills count="2">
@@ -231,7 +266,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -239,6 +274,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -575,30 +616,30 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{799A3EBA-BAA5-4534-951B-162B1D93B342}">
-  <dimension ref="A1:K12"/>
+  <dimension ref="A1:L12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="14.75" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.125" customWidth="1"/>
-    <col min="4" max="4" width="12.125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.25" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17.375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="29" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="21.25" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="10.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="10.125" customWidth="1"/>
+    <col min="5" max="5" width="12.125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.25" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="29" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="21.25" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>6</v>
       </c>
@@ -608,381 +649,417 @@
       <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" t="s">
+        <v>4</v>
+      </c>
+      <c r="J1" t="s">
+        <v>3</v>
+      </c>
+      <c r="K1" t="s">
+        <v>8</v>
+      </c>
+      <c r="L1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B2" s="1">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
         <v>11</v>
       </c>
-      <c r="F1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" t="s">
-        <v>4</v>
-      </c>
-      <c r="I1" t="s">
+      <c r="D2" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="E2">
+        <v>5</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>5</v>
+      </c>
+      <c r="H2">
+        <v>1</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>28</v>
+      </c>
+      <c r="K2" t="s">
+        <v>22</v>
+      </c>
+      <c r="L2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B3" s="1">
+        <v>2</v>
+      </c>
+      <c r="C3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="E3">
+        <v>12</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>5</v>
+      </c>
+      <c r="H3">
+        <v>1</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>28</v>
+      </c>
+      <c r="K3" t="s">
+        <v>23</v>
+      </c>
+      <c r="L3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B4" s="1">
         <v>3</v>
       </c>
-      <c r="J1" t="s">
+      <c r="C4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E4">
         <v>8</v>
       </c>
-      <c r="K1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B2" s="1">
-        <v>10002001</v>
-      </c>
-      <c r="C2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D2">
-        <v>5</v>
-      </c>
-      <c r="E2">
-        <v>0</v>
-      </c>
-      <c r="F2">
-        <v>5</v>
-      </c>
-      <c r="G2">
-        <v>1</v>
-      </c>
-      <c r="H2">
-        <v>0</v>
-      </c>
-      <c r="I2">
-        <v>28</v>
-      </c>
-      <c r="J2" t="s">
-        <v>23</v>
-      </c>
-      <c r="K2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B3" s="1">
-        <v>10002002</v>
-      </c>
-      <c r="C3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D3">
-        <v>12</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="F3">
-        <v>5</v>
-      </c>
-      <c r="G3">
-        <v>1</v>
-      </c>
-      <c r="H3">
-        <v>0</v>
-      </c>
-      <c r="I3">
-        <v>28</v>
-      </c>
-      <c r="J3" t="s">
-        <v>25</v>
-      </c>
-      <c r="K3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B4" s="1">
-        <v>10002003</v>
-      </c>
-      <c r="C4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D4">
-        <v>8</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
       <c r="F4">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G4">
+        <v>5</v>
+      </c>
+      <c r="H4">
         <v>3</v>
       </c>
-      <c r="H4">
-        <v>0</v>
-      </c>
       <c r="I4">
-        <v>28</v>
-      </c>
-      <c r="J4" t="s">
-        <v>26</v>
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>28</v>
       </c>
       <c r="K4" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B5" s="1">
-        <v>10002004</v>
+        <v>4</v>
       </c>
       <c r="C5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E5">
+        <v>10</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>5</v>
+      </c>
+      <c r="H5">
+        <v>1</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>28</v>
+      </c>
+      <c r="K5" t="s">
+        <v>25</v>
+      </c>
+      <c r="L5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B6" s="1">
+        <v>5</v>
+      </c>
+      <c r="C6" t="s">
         <v>18</v>
       </c>
-      <c r="D5">
-        <v>10</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5">
-        <v>5</v>
-      </c>
-      <c r="G5">
+      <c r="D6" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="E6">
+        <v>5</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>5</v>
+      </c>
+      <c r="H6">
         <v>1</v>
       </c>
-      <c r="H5">
-        <v>0</v>
-      </c>
-      <c r="I5">
-        <v>28</v>
-      </c>
-      <c r="J5" t="s">
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>28</v>
+      </c>
+      <c r="K6" t="s">
+        <v>26</v>
+      </c>
+      <c r="L6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B7" s="1">
+        <v>6</v>
+      </c>
+      <c r="C7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="E7">
+        <v>8</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>5</v>
+      </c>
+      <c r="H7">
+        <v>1</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>28</v>
+      </c>
+      <c r="K7" t="s">
         <v>27</v>
       </c>
-      <c r="K5" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B6" s="1">
-        <v>10002005</v>
-      </c>
-      <c r="C6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D6">
-        <v>5</v>
-      </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="F6">
-        <v>5</v>
-      </c>
-      <c r="G6">
+      <c r="L7" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B8" s="1">
+        <v>7</v>
+      </c>
+      <c r="C8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="E8">
+        <v>7</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>5</v>
+      </c>
+      <c r="H8">
+        <v>3</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>28</v>
+      </c>
+      <c r="K8" t="s">
+        <v>28</v>
+      </c>
+      <c r="L8" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="B9" s="1">
+        <v>101</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E9">
+        <v>6</v>
+      </c>
+      <c r="F9">
+        <v>2</v>
+      </c>
+      <c r="G9">
+        <v>5</v>
+      </c>
+      <c r="H9">
         <v>1</v>
       </c>
-      <c r="H6">
-        <v>0</v>
-      </c>
-      <c r="I6">
-        <v>28</v>
-      </c>
-      <c r="J6" t="s">
-        <v>28</v>
-      </c>
-      <c r="K6" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B7" s="1">
-        <v>10002006</v>
-      </c>
-      <c r="C7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D7">
+      <c r="I9">
+        <v>4</v>
+      </c>
+      <c r="J9">
+        <v>28</v>
+      </c>
+      <c r="K9" t="s">
+        <v>29</v>
+      </c>
+      <c r="L9" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B10" s="1">
+        <v>102</v>
+      </c>
+      <c r="C10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E10">
+        <v>7</v>
+      </c>
+      <c r="F10">
+        <v>2</v>
+      </c>
+      <c r="G10">
+        <v>5</v>
+      </c>
+      <c r="H10">
+        <v>1</v>
+      </c>
+      <c r="I10">
+        <v>4</v>
+      </c>
+      <c r="J10">
+        <v>28</v>
+      </c>
+      <c r="K10" t="s">
+        <v>30</v>
+      </c>
+      <c r="L10" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B11" s="1">
+        <v>103</v>
+      </c>
+      <c r="C11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="E11">
+        <v>7</v>
+      </c>
+      <c r="F11">
+        <v>3</v>
+      </c>
+      <c r="G11">
+        <v>5</v>
+      </c>
+      <c r="H11">
+        <v>1</v>
+      </c>
+      <c r="I11">
+        <v>3</v>
+      </c>
+      <c r="J11">
+        <v>28</v>
+      </c>
+      <c r="K11" t="s">
+        <v>31</v>
+      </c>
+      <c r="L11" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B12" s="1">
+        <v>104</v>
+      </c>
+      <c r="C12" t="s">
+        <v>13</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="E12">
         <v>8</v>
       </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="F7">
-        <v>5</v>
-      </c>
-      <c r="G7">
+      <c r="F12">
+        <v>3</v>
+      </c>
+      <c r="G12">
+        <v>5</v>
+      </c>
+      <c r="H12">
         <v>1</v>
       </c>
-      <c r="H7">
-        <v>0</v>
-      </c>
-      <c r="I7">
-        <v>28</v>
-      </c>
-      <c r="J7" t="s">
-        <v>29</v>
-      </c>
-      <c r="K7" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B8" s="1">
-        <v>10002007</v>
-      </c>
-      <c r="C8" t="s">
-        <v>21</v>
-      </c>
-      <c r="D8">
-        <v>7</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-      <c r="F8">
-        <v>5</v>
-      </c>
-      <c r="G8">
+      <c r="I12">
         <v>3</v>
       </c>
-      <c r="H8">
-        <v>0</v>
-      </c>
-      <c r="I8">
-        <v>28</v>
-      </c>
-      <c r="J8" t="s">
-        <v>30</v>
-      </c>
-      <c r="K8" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="B9" s="1">
-        <v>10003001</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D9">
-        <v>6</v>
-      </c>
-      <c r="E9">
-        <v>2</v>
-      </c>
-      <c r="F9">
-        <v>5</v>
-      </c>
-      <c r="G9">
-        <v>1</v>
-      </c>
-      <c r="H9">
-        <v>4</v>
-      </c>
-      <c r="I9">
-        <v>28</v>
-      </c>
-      <c r="J9" t="s">
-        <v>31</v>
-      </c>
-      <c r="K9" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B10" s="1">
-        <v>10003002</v>
-      </c>
-      <c r="C10" t="s">
-        <v>16</v>
-      </c>
-      <c r="D10">
-        <v>7</v>
-      </c>
-      <c r="E10">
-        <v>2</v>
-      </c>
-      <c r="F10">
-        <v>5</v>
-      </c>
-      <c r="G10">
-        <v>1</v>
-      </c>
-      <c r="H10">
-        <v>4</v>
-      </c>
-      <c r="I10">
-        <v>28</v>
-      </c>
-      <c r="J10" t="s">
+      <c r="J12">
+        <v>28</v>
+      </c>
+      <c r="K12" t="s">
         <v>32</v>
       </c>
-      <c r="K10" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B11" s="1">
-        <v>10003003</v>
-      </c>
-      <c r="C11" t="s">
-        <v>13</v>
-      </c>
-      <c r="D11">
-        <v>7</v>
-      </c>
-      <c r="E11">
-        <v>3</v>
-      </c>
-      <c r="F11">
-        <v>5</v>
-      </c>
-      <c r="G11">
-        <v>1</v>
-      </c>
-      <c r="H11">
-        <v>3</v>
-      </c>
-      <c r="I11">
-        <v>28</v>
-      </c>
-      <c r="J11" t="s">
-        <v>33</v>
-      </c>
-      <c r="K11" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B12" s="1">
-        <v>10003004</v>
-      </c>
-      <c r="C12" t="s">
-        <v>14</v>
-      </c>
-      <c r="D12">
-        <v>8</v>
-      </c>
-      <c r="E12">
-        <v>3</v>
-      </c>
-      <c r="F12">
-        <v>5</v>
-      </c>
-      <c r="G12">
-        <v>1</v>
-      </c>
-      <c r="H12">
-        <v>3</v>
-      </c>
-      <c r="I12">
-        <v>28</v>
-      </c>
-      <c r="J12" t="s">
+      <c r="L12" t="s">
         <v>34</v>
-      </c>
-      <c r="K12" t="s">
-        <v>24</v>
       </c>
     </row>
   </sheetData>

--- a/program/1S3B/RawData/Crops_Data.xlsx
+++ b/program/1S3B/RawData/Crops_Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Programming\STIKA\Unity\1S3B\program\1S3B\RawData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E1C001A-6631-4C09-AD76-EDEA0074E560}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B6BA191-5262-469C-9B60-E780DB804E3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30495" yWindow="885" windowWidth="23460" windowHeight="13365" xr2:uid="{38398EED-7580-4DA0-A828-A83E37DEE852}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{38398EED-7580-4DA0-A828-A83E37DEE852}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -619,7 +619,7 @@
   <dimension ref="A1:L12"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+      <selection activeCell="N17" sqref="N17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>

--- a/program/1S3B/RawData/Crops_Data.xlsx
+++ b/program/1S3B/RawData/Crops_Data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Programming\STIKA\Unity\1S3B\program\1S3B\RawData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B6BA191-5262-469C-9B60-E780DB804E3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C1FC889-6C93-4F7C-850A-6D6C0FD9A060}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{38398EED-7580-4DA0-A828-A83E37DEE852}"/>
+    <workbookView xWindow="28680" yWindow="45" windowWidth="29040" windowHeight="15840" xr2:uid="{38398EED-7580-4DA0-A828-A83E37DEE852}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -173,13 +173,6 @@
     <t>Season</t>
   </si>
   <si>
-    <t>0,1,2,3,4,5,6</t>
-  </si>
-  <si>
-    <t>0,1,2,3,4,5,6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>가을</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -190,6 +183,13 @@
   <si>
     <t>봄</t>
     <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,1,2,3,4,5,6,7</t>
+  </si>
+  <si>
+    <t>0,1,2,3,4,5,6,7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -616,10 +616,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{799A3EBA-BAA5-4534-951B-162B1D93B342}">
-  <dimension ref="A1:L12"/>
+  <dimension ref="A1:L13"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="N17" sqref="N17"/>
+      <selection activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -685,7 +685,7 @@
         <v>11</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E2">
         <v>5</v>
@@ -709,7 +709,7 @@
         <v>22</v>
       </c>
       <c r="L2" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
@@ -720,7 +720,7 @@
         <v>14</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E3">
         <v>12</v>
@@ -744,7 +744,7 @@
         <v>23</v>
       </c>
       <c r="L3" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
@@ -755,7 +755,7 @@
         <v>16</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E4">
         <v>8</v>
@@ -779,7 +779,7 @@
         <v>24</v>
       </c>
       <c r="L4" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
@@ -790,7 +790,7 @@
         <v>17</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E5">
         <v>10</v>
@@ -814,7 +814,7 @@
         <v>25</v>
       </c>
       <c r="L5" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
@@ -825,7 +825,7 @@
         <v>18</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E6">
         <v>5</v>
@@ -849,7 +849,7 @@
         <v>26</v>
       </c>
       <c r="L6" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
@@ -860,7 +860,7 @@
         <v>19</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E7">
         <v>8</v>
@@ -884,7 +884,7 @@
         <v>27</v>
       </c>
       <c r="L7" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.3">
@@ -895,7 +895,7 @@
         <v>20</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E8">
         <v>7</v>
@@ -919,7 +919,7 @@
         <v>28</v>
       </c>
       <c r="L8" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="17.25" x14ac:dyDescent="0.3">
@@ -930,7 +930,7 @@
         <v>21</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E9">
         <v>6</v>
@@ -954,7 +954,7 @@
         <v>29</v>
       </c>
       <c r="L9" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.3">
@@ -965,7 +965,7 @@
         <v>15</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E10">
         <v>7</v>
@@ -989,7 +989,7 @@
         <v>30</v>
       </c>
       <c r="L10" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.3">
@@ -1000,7 +1000,7 @@
         <v>12</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E11">
         <v>7</v>
@@ -1024,7 +1024,7 @@
         <v>31</v>
       </c>
       <c r="L11" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.3">
@@ -1035,7 +1035,7 @@
         <v>13</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E12">
         <v>8</v>
@@ -1059,8 +1059,11 @@
         <v>32</v>
       </c>
       <c r="L12" t="s">
-        <v>34</v>
-      </c>
+        <v>37</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B13" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/program/1S3B/RawData/Crops_Data.xlsx
+++ b/program/1S3B/RawData/Crops_Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Programming\STIKA\Unity\1S3B\program\1S3B\RawData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C1FC889-6C93-4F7C-850A-6D6C0FD9A060}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E63C736A-D581-4AFF-9835-1C411D857174}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="45" windowWidth="29040" windowHeight="15840" xr2:uid="{38398EED-7580-4DA0-A828-A83E37DEE852}"/>
+    <workbookView xWindow="27900" yWindow="450" windowWidth="23460" windowHeight="13365" xr2:uid="{38398EED-7580-4DA0-A828-A83E37DEE852}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -185,10 +185,10 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>0,1,2,3,4,5,6,7</t>
-  </si>
-  <si>
-    <t>0,1,2,3,4,5,6,7</t>
+    <t>0,1,2,3,4,5,6</t>
+  </si>
+  <si>
+    <t>0,1,2,3,4,5,6</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -619,7 +619,7 @@
   <dimension ref="A1:L13"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H26" sqref="H26"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
